--- a/results/XGBClassifier.xlsx
+++ b/results/XGBClassifier.xlsx
@@ -493,67 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0...d=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.01,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=7, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=100,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.701605648788509</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__subsample': 0.5, 'model__n_estimators': 100, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.588235294117647</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9833987875943694</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.00466217366442281</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6217421148670523</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.08529902488895576</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
@@ -562,12 +502,72 @@
                                colsample_bylevel=None, colsample_bynode=None,
                                colsample_bytree=0.5, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=...id=None,
+                               feature_types=N...d=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.01,
                                max_bin=None, max_cat_threshold=None,
                                max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=5, max_leaves=None,
+                               max_depth=3, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=100,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__subsample': 1.0, 'model__n_estimators': 100, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9818333333333333</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.005769821471306291</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5867619047619048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06014813263296432</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=0.5, early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=0, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.01,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=7, max_leaves=None,
                                min_child_weight=None, missing=nan,
                                monotone_constraints=None, n_estimators=50,
                                n_jobs=None, num_parallel_tree=None,
@@ -575,60 +575,60 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7293793103448276</v>
+        <v>0.6095238095238095</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0.2, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 1 1 0 1 1 1]</t>
+          <t>[1 1 1 1 1 0 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9859020413462899</v>
+        <v>0.9792142857142858</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004578160275979308</v>
+        <v>0.005096997445905191</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6501194568322114</v>
+        <v>0.5362857142857143</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07555894744204468</v>
+        <v>0.06661386197060812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=1.0, early_stopping_rounds=None,
+                               colsample_bytree=0.8, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types..._id=None,
+                               feature_types=None, gamma=..._id=None,
                                grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.5,
+                               interaction_constraints=None, learning_rate=0.1,
                                max_bin=None, max_cat_threshold=None,
                                max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=5, max_leaves=None,
+                               max_depth=7, max_leaves=None,
                                min_child_weight=None, missing=nan,
                                monotone_constraints=None, n_estimators=50,
                                n_jobs=None, num_parallel_tree=None,
@@ -636,40 +636,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.722937728937729</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 5, 'model__learning_rate': 0.5, 'model__gamma': 0, 'model__colsample_bytree': 1.0}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.1, 'model__gamma': 0.2, 'model__colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.588235294117647</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 1 1 1 1 1 0]</t>
+          <t>[1 0 0 1 1 1 0 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.985402262438148</v>
+        <v>0.9813809523809524</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004561941649478028</v>
+        <v>0.007273282772671022</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6521469280026424</v>
+        <v>0.5234285714285715</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07920816023239705</v>
+        <v>0.09389862041832295</v>
       </c>
     </row>
   </sheetData>

--- a/results/XGBClassifier.xlsx
+++ b/results/XGBClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,76 +493,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f45a9b8a370&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
+                               colsample_bytree=1.0, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=N...d=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.01,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=3, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=100,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__subsample': 1.0, 'model__n_estimators': 100, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9818333333333333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.005769821471306291</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5867619047619048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06014813263296432</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0, gpu_id=None,
+                               feature_types=None, gamma=0.2, gpu_id=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.01,
                                max_bin=None, max_cat_threshold=None,
@@ -574,41 +513,101 @@
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f45a9ace8b0&gt;, 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0.2, 'model__colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 1 1 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9669279907084787</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.007192539814404358</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5635307781649244</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06714518070469799</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f45043fa3a0&gt;),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=0.5, early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=0.1, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.01,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=7, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=100,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
       <c r="B3" t="n">
-        <v>0.6095238095238095</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3adc0c47f0&gt;, 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 100, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 0 1 0 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9792142857142858</v>
+        <v>0.9816190476190475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005096997445905191</v>
+        <v>0.005665436470911159</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5362857142857143</v>
+        <v>0.5132698412698411</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06661386197060812</v>
+        <v>0.08949786041996534</v>
       </c>
     </row>
     <row r="4">
@@ -616,14 +615,13 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3adc0c4eb0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.8, early_stopping_rounds=None,
+                               colsample_bytree=0.5, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=..._id=None,
+                               feature_types=None, gamma=0.1, gpu_id=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.1,
                                max_bin=None, max_cat_threshold=None,
@@ -636,15 +634,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0.6095238095238095</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.1, 'model__gamma': 0.2, 'model__colsample_bytree': 0.8}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f4504368220&gt;, 'scaler': None, 'model__subsample': 0.8, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.1, 'model__gamma': 0.1, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -653,23 +651,143 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 1 0 0 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9813809523809524</v>
+        <v>0.979182754182754</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007273282772671022</v>
+        <v>0.007740351256799776</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5234285714285715</v>
+        <v>0.5241956241956242</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09389862041832295</v>
+        <v>0.09831409418318524</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6c5373d0&gt;),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=0.8, early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=0, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.1,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=3, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=100,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c439940&gt;, 'scaler': None, 'model__subsample': 0.8, 'model__n_estimators': 100, 'model__max_depth': 3, 'model__learning_rate': 0.1, 'model__gamma': 0, 'model__colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9850732600732603</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.004934424748355733</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5063492063492063</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07077801350542343</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6c439100&gt;),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=0.5, early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=0.1, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.1,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=3, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=50,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5904761904761905</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c3f96d0&gt;, 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.1, 'model__gamma': 0.1, 'model__colsample_bytree': 0.5}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7692307692307692</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 0 1 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9839517625231912</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.004337687213876009</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5083487940630798</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.09994895771068718</v>
       </c>
     </row>
   </sheetData>

--- a/results/XGBClassifier.xlsx
+++ b/results/XGBClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,13 +495,133 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f45a9b8a370&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fccd03573a0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=1.0, early_stopping_rounds=None,
+                               colsample_bytree=0.8, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.2, gpu_id=None,
+                               feature_types=None, gamma=0.1, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.01,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=3, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=200,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6332400932400932</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd032fc70&gt;, 'scaler': None, 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7777777777777777</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9790451275453006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.005864433941462521</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5263904492566257</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1603901785145036</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fccd032fb20&gt;),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=0.5, early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=0, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.01,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=5, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=200,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7608424908424908</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd0301af0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9734010874485126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.005336605578797564</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6433901177254117</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1038006361678228</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fccd032fe20&gt;),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=0.5, early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=0, gpu_id=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.01,
                                max_bin=None, max_cat_threshold=None,
@@ -513,237 +633,57 @@
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f45a9ace8b0&gt;, 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0.2, 'model__colsample_bytree': 1.0}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 1 1 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9669279907084787</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.007192539814404358</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5635307781649244</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06714518070469799</v>
+      <c r="B4" t="n">
+        <v>0.7477380952380952</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd0301580&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 1 0 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9785318685899422</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.005335502683230223</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6275113886113887</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1137008492794611</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f45043fa3a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fccd03015b0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
                                colsample_bytree=0.5, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.1, gpu_id=None,
+                               feature_types=None, gamma=0, gpu_id=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.01,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=7, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=100,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.638095238095238</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3adc0c47f0&gt;, 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 100, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.5}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9816190476190475</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.005665436470911159</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5132698412698411</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08949786041996534</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3adc0c4eb0&gt;),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.1, gpu_id=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.1,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=7, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=50,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6095238095238095</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f4504368220&gt;, 'scaler': None, 'model__subsample': 0.8, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.1, 'model__gamma': 0.1, 'model__colsample_bytree': 0.5}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.979182754182754</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.007740351256799776</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5241956241956242</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.09831409418318524</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6c5373d0&gt;),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.8, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0, gpu_id=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.1,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=3, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=100,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c439940&gt;, 'scaler': None, 'model__subsample': 0.8, 'model__n_estimators': 100, 'model__max_depth': 3, 'model__learning_rate': 0.1, 'model__gamma': 0, 'model__colsample_bytree': 0.8}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 0 0 1 0 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9850732600732603</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.004934424748355733</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5063492063492063</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.07077801350542343</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6c439100&gt;),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.1, gpu_id=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.1,
                                max_bin=None, max_cat_threshold=None,
                                max_cat_to_onehot=None, max_delta_step=None,
                                max_depth=3, max_leaves=None,
@@ -753,41 +693,41 @@
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.5904761904761905</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c3f96d0&gt;, 'scaler': None, 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.1, 'model__gamma': 0.1, 'model__colsample_bytree': 0.5}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7692307692307692</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 1 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9839517625231912</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.004337687213876009</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5083487940630798</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.09994895771068718</v>
+      <c r="B5" t="n">
+        <v>0.7950840336134454</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd0301250&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 1 0 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9748014752546222</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.004773834911271605</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6574096664773136</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1263188717851094</v>
       </c>
     </row>
   </sheetData>

--- a/results/XGBClassifier.xlsx
+++ b/results/XGBClassifier.xlsx
@@ -495,7 +495,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fccd03573a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91043e86a0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
@@ -518,7 +518,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd032fc70&gt;, 'scaler': None, 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.8}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91043e81c0&gt;, 'scaler': None, 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -538,16 +538,16 @@
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9790451275453006</v>
+        <v>0.9777132651805929</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005864433941462521</v>
+        <v>0.005753295364970079</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5263904492566257</v>
+        <v>0.523993860387978</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1603901785145036</v>
+        <v>0.1612873099309589</v>
       </c>
     </row>
     <row r="3">
@@ -555,7 +555,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fccd032fb20&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91043e87c0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
@@ -578,7 +578,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd0301af0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91043e8c10&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -598,16 +598,16 @@
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9734010874485126</v>
+        <v>0.9668544652549609</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005336605578797564</v>
+        <v>0.006238963318035465</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6433901177254117</v>
+        <v>0.6465173522555875</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1038006361678228</v>
+        <v>0.1006492796668859</v>
       </c>
     </row>
     <row r="4">
@@ -615,7 +615,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fccd032fe20&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91043e8b20&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
@@ -628,17 +628,17 @@
                                max_cat_to_onehot=None, max_delta_step=None,
                                max_depth=7, max_leaves=None,
                                min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=50,
+                               monotone_constraints=None, n_estimators=100,
                                n_jobs=None, num_parallel_tree=None,
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7477380952380952</v>
+        <v>0.7347549019607842</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd0301580&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91043e8e80&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 100, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -658,16 +658,16 @@
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9785318685899422</v>
+        <v>0.9811858061171492</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005335502683230223</v>
+        <v>0.004929119009328748</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6275113886113887</v>
+        <v>0.6213583269671505</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1137008492794611</v>
+        <v>0.1187754442379667</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fccd03015b0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91043e8eb0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
@@ -698,7 +698,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd0301250&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91044a5cd0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -718,16 +718,16 @@
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9748014752546222</v>
+        <v>0.9723324369519848</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004773834911271605</v>
+        <v>0.004316199123202302</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6574096664773136</v>
+        <v>0.6600916204710323</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1263188717851094</v>
+        <v>0.1241107210684721</v>
       </c>
     </row>
   </sheetData>

--- a/results/XGBClassifier.xlsx
+++ b/results/XGBClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -495,11 +515,11 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91043e86a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05d9850&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.8, early_stopping_rounds=None,
+                               colsample_bytree=1.0, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
                                feature_types=None, gamma=0.1, gpu_id=None,
                                grow_policy=None, importance_type=None,
@@ -508,46 +528,58 @@
                                max_cat_to_onehot=None, max_delta_step=None,
                                max_depth=3, max_leaves=None,
                                min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=200,
+                               monotone_constraints=None, n_estimators=100,
                                n_jobs=None, num_parallel_tree=None,
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6332400932400932</v>
+        <v>0.6326190476190476</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91043e81c0&gt;, 'scaler': None, 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.8}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05e2820&gt;, 'scaler': None, 'model__subsample': 1.0, 'model__n_estimators': 100, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
+        <v>0.9762533876637292</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5088329004329003</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7450980392156864</v>
       </c>
       <c r="G2" t="n">
+        <v>0.9659918803802953</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5210507936507937</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9878095238095238</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5292</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 1 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9777132651805929</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.005753295364970079</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.523993860387978</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1612873099309589</v>
       </c>
     </row>
     <row r="3">
@@ -555,7 +587,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91043e87c0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05e2070&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
@@ -574,100 +606,124 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7608424908424908</v>
+        <v>0.6852380952380952</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91043e8c10&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8700&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 0 1 1 1 1 1 0]</t>
-        </is>
+        <v>0.964077165417861</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5607665001665002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6923076923076924</v>
       </c>
       <c r="G3" t="n">
+        <v>0.9506297125349963</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5452904761904762</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9793999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5988</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9668544652549609</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.006238963318035465</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6465173522555875</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1006492796668859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91043e8b20&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8430&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
                                colsample_bytree=0.5, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0, gpu_id=None,
+                               feature_types=None, gamma=0.1, gpu_id=None,
                                grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.01,
+                               interaction_constraints=None, learning_rate=0.1,
                                max_bin=None, max_cat_threshold=None,
                                max_cat_to_onehot=None, max_delta_step=None,
                                max_depth=7, max_leaves=None,
                                min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=100,
+                               monotone_constraints=None, n_estimators=50,
                                n_jobs=None, num_parallel_tree=None,
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7347549019607842</v>
+        <v>0.6233333333333333</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91043e8e80&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 100, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8b20&gt;, 'scaler': None, 'model__subsample': 1.0, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.1, 'model__gamma': 0.1, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 0 1 1 0 0 0]</t>
-        </is>
+        <v>0.9785182521209894</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5576717171717172</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6530612244897959</v>
       </c>
       <c r="G4" t="n">
+        <v>0.9747891661864556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5521825396825397</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.982578947368421</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5856</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9811858061171492</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.004929119009328748</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6213583269671505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1187754442379667</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +731,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91043e8eb0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8580&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
@@ -694,40 +750,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7950840336134454</v>
+        <v>0.7151190476190477</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91044a5cd0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8fd0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
+        <v>0.9732271526591363</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5826157842157842</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6382978723404256</v>
       </c>
       <c r="G5" t="n">
+        <v>0.9582585630493827</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5582015873015872</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9908095238095238</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6307999999999998</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 1 0 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.9723324369519848</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.004316199123202302</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6600916204710323</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1241107210684721</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8eb0&gt;),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=0.8, early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=0.1, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.01,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=5, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=100,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6688888888888889</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05ed6d0&gt;, 'scaler': RobustScaler(), 'model__subsample': 1.0, 'model__n_estimators': 100, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9634086897528884</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6123300255300257</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5581395348837209</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9430689646559474</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5559349206349207</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9872727272727272</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6988000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/XGBClassifier.xlsx
+++ b/results/XGBClassifier.xlsx
@@ -513,13 +513,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05d9850&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa03404f3d0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=1.0, early_stopping_rounds=None,
+                               colsample_bytree=0.8, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
                                feature_types=None, gamma=0.1, gpu_id=None,
                                grow_policy=None, importance_type=None,
@@ -528,54 +528,54 @@
                                max_cat_to_onehot=None, max_delta_step=None,
                                max_depth=3, max_leaves=None,
                                min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=100,
+                               monotone_constraints=None, n_estimators=50,
                                n_jobs=None, num_parallel_tree=None,
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6326190476190476</v>
+        <v>0.6781118881118882</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05e2820&gt;, 'scaler': None, 'model__subsample': 1.0, 'model__n_estimators': 100, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 1.0}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa004493f10&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9762533876637292</v>
+        <v>0.9780858117341675</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5088329004329003</v>
+        <v>0.5771960150960151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7450980392156864</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9659918803802953</v>
+        <v>0.9698712042489004</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5210507936507937</v>
+        <v>0.5664023809523809</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.75</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9878095238095238</v>
+        <v>0.9872340425531916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5292</v>
+        <v>0.612</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9375</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -587,87 +587,15 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05e2070&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa0044938b0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
                                colsample_bytree=0.5, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0, gpu_id=None,
+                               feature_types=None, gamma=0.2, gpu_id=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.01,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=5, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=200,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6852380952380952</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8700&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.8, 'model__n_estimators': 200, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.964077165417861</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5607665001665002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6923076923076924</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9506297125349963</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5452904761904762</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9793999999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5988</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8430&gt;),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.1, gpu_id=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.1,
                                max_bin=None, max_cat_threshold=None,
                                max_cat_to_onehot=None, max_delta_step=None,
                                max_depth=7, max_leaves=None,
@@ -677,49 +605,121 @@
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0.6785880785880786</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa0044dc580&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0.2, 'model__colsample_bytree': 0.5}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9671953648059105</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5460047841047841</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9534032519674004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5796285714285714</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9828936170212766</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5353333333333333</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa004493490&gt;),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=0.8, early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=0.2, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.01,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=5, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=100,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
       <c r="B4" t="n">
-        <v>0.6233333333333333</v>
+        <v>0.6686580086580087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8b20&gt;, 'scaler': None, 'model__subsample': 1.0, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.1, 'model__gamma': 0.1, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa0044dc340&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.8, 'model__n_estimators': 100, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0.2, 'model__colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9785182521209894</v>
+        <v>0.9793729524970384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5576717171717172</v>
+        <v>0.5626001887001887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9747891661864556</v>
+        <v>0.9731783971778825</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5521825396825397</v>
+        <v>0.5790111111111111</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J4" t="n">
-        <v>0.982578947368421</v>
+        <v>0.9861333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5856</v>
+        <v>0.5723999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -731,7 +731,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8580&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa0044dcca0&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
@@ -750,48 +750,48 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7151190476190477</v>
+        <v>0.7295787545787545</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8fd0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa004472070&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9732271526591363</v>
+        <v>0.9724292358290221</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5826157842157842</v>
+        <v>0.6013865356865357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.8125000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9582585630493827</v>
+        <v>0.9559223380217277</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5582015873015872</v>
+        <v>0.5739285714285715</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9908095238095238</v>
+        <v>0.9918367346938777</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6307999999999998</v>
+        <v>0.6493333333333333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 1 0 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1]</t>
+          <t>[0 1 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -801,69 +801,69 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae05a8eb0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fa004456910&gt;),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.8, early_stopping_rounds=None,
+                               colsample_bytree=0.5, early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.1, gpu_id=None,
+                               feature_types=None, gamma=0, gpu_id=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.01,
                                max_bin=None, max_cat_threshold=None,
                                max_cat_to_onehot=None, max_delta_step=None,
                                max_depth=5, max_leaves=None,
                                min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=100,
+                               monotone_constraints=None, n_estimators=50,
                                n_jobs=None, num_parallel_tree=None,
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6688888888888889</v>
+        <v>0.7458591408591408</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae05ed6d0&gt;, 'scaler': RobustScaler(), 'model__subsample': 1.0, 'model__n_estimators': 100, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.8}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa004420100&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9634086897528884</v>
+        <v>0.968782605841421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6123300255300257</v>
+        <v>0.6421301920301921</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9430689646559474</v>
+        <v>0.9498296634007943</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5559349206349207</v>
+        <v>0.6088182539682541</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9872727272727272</v>
+        <v>0.9904999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6988000000000001</v>
+        <v>0.698</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/XGBClassifier.xlsx
+++ b/results/XGBClassifier.xlsx
@@ -515,13 +515,232 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fa03404f3d0&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.8, early_stopping_rounds=None,
+                               colsample_bytree=None,
+                               early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.1, gpu_id=None,
+                               feature_types=None, gamma=50...id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.1,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=1, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=100,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 100, 'model__max_depth': 1, 'model__learning_rate': 0.1, 'model__gamma': 50}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7230769230769232</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5662650602409639</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=None,
+                               early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=50, gpu_id=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.01,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=1, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=200,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 200, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__gamma': 50}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7230769230769232</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5662650602409639</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=None,
+                               early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=...d=None,
+                               grow_policy=None, importance_type=None,
+                               interaction_constraints=None, learning_rate=0.01,
+                               max_bin=None, max_cat_threshold=None,
+                               max_cat_to_onehot=None, max_delta_step=None,
+                               max_depth=3, max_leaves=None,
+                               min_child_weight=None, missing=nan,
+                               monotone_constraints=None, n_estimators=200,
+                               n_jobs=None, num_parallel_tree=None,
+                               predictor=None, random_state=42, ...))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 200, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 40}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7031249999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8837209302325582</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.542168674698795</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fe06156f790&gt;),
+                ('model',
+                 XGBClassifier(base_score=None, booster=None, callbacks=None,
+                               colsample_bylevel=None, colsample_bynode=None,
+                               colsample_bytree=None,
+                               early_stopping_rounds=None,
+                               enable_categorical=False, eval_metric=None,
+                               feature_types=None, gamma=55, gpu_id=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.01,
                                max_bin=None, max_cat_threshold=None,
@@ -533,328 +752,114 @@
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6781118881118882</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa004493f10&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0.1, 'model__colsample_bytree': 0.8}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9780858117341675</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5771960150960151</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9698712042489004</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5664023809523809</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9872340425531916</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>42</v>
+      <c r="B5" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fe06154af70&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 55}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7424242424242423</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5903614457831325</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fa0044938b0&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
                  XGBClassifier(base_score=None, booster=None, callbacks=None,
                                colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
+                               colsample_bytree=None,
+                               early_stopping_rounds=None,
                                enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.2, gpu_id=None,
+                               feature_types=...d=None,
                                grow_policy=None, importance_type=None,
                                interaction_constraints=None, learning_rate=0.01,
                                max_bin=None, max_cat_threshold=None,
                                max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=7, max_leaves=None,
+                               max_depth=1, max_leaves=None,
                                min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=50,
+                               monotone_constraints=None, n_estimators=200,
                                n_jobs=None, num_parallel_tree=None,
                                predictor=None, random_state=42, ...))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.6785880785880786</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa0044dc580&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__gamma': 0.2, 'model__colsample_bytree': 0.5}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9671953648059105</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5460047841047841</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8421052631578948</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9534032519674004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5796285714285714</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9828936170212766</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5353333333333333</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fa004493490&gt;),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.8, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0.2, gpu_id=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.01,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=5, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=100,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6686580086580087</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa0044dc340&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.8, 'model__n_estimators': 100, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0.2, 'model__colsample_bytree': 0.8}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9793729524970384</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5626001887001887</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9731783971778825</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5790111111111111</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9861333333333333</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5723999999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fa0044dcca0&gt;),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0, gpu_id=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.01,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=3, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=50,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7295787545787545</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa004472070&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9724292358290221</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6013865356865357</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8125000000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9559223380217277</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5739285714285715</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9918367346938777</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6493333333333333</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fa004456910&gt;),
-                ('model',
-                 XGBClassifier(base_score=None, booster=None, callbacks=None,
-                               colsample_bylevel=None, colsample_bynode=None,
-                               colsample_bytree=0.5, early_stopping_rounds=None,
-                               enable_categorical=False, eval_metric=None,
-                               feature_types=None, gamma=0, gpu_id=None,
-                               grow_policy=None, importance_type=None,
-                               interaction_constraints=None, learning_rate=0.01,
-                               max_bin=None, max_cat_threshold=None,
-                               max_cat_to_onehot=None, max_delta_step=None,
-                               max_depth=5, max_leaves=None,
-                               min_child_weight=None, missing=nan,
-                               monotone_constraints=None, n_estimators=50,
-                               n_jobs=None, num_parallel_tree=None,
-                               predictor=None, random_state=42, ...))])</t>
-        </is>
-      </c>
       <c r="B6" t="n">
-        <v>0.7458591408591408</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa004420100&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__n_estimators': 50, 'model__max_depth': 5, 'model__learning_rate': 0.01, 'model__gamma': 0, 'model__colsample_bytree': 0.5}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 200, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__gamma': 50}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.968782605841421</v>
+        <v>0.7703703703703705</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6421301920301921</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9498296634007943</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6088182539682541</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9904999999999999</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.698</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -863,7 +868,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 1 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
